--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a3-Cd93.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Col4a3</t>
   </si>
   <si>
     <t>Cd93</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H2">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I2">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J2">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>48.714107669803</v>
+        <v>46.42882669722</v>
       </c>
       <c r="R2">
-        <v>438.426969028227</v>
+        <v>417.85944027498</v>
       </c>
       <c r="S2">
-        <v>0.175047411485817</v>
+        <v>0.1147593879135355</v>
       </c>
       <c r="T2">
-        <v>0.175047411485817</v>
+        <v>0.1147593879135355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H3">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I3">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J3">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>23.01017095083578</v>
+        <v>16.742013944712</v>
       </c>
       <c r="R3">
-        <v>207.091538557522</v>
+        <v>150.678125502408</v>
       </c>
       <c r="S3">
-        <v>0.08268386829728894</v>
+        <v>0.04138168912310822</v>
       </c>
       <c r="T3">
-        <v>0.08268386829728892</v>
+        <v>0.04138168912310821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H4">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I4">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J4">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>0.9400143316184444</v>
+        <v>0.21962793798</v>
       </c>
       <c r="R4">
-        <v>8.460128984565999</v>
+        <v>1.97665144182</v>
       </c>
       <c r="S4">
-        <v>0.00337781154947397</v>
+        <v>0.0005428603202847226</v>
       </c>
       <c r="T4">
-        <v>0.00337781154947397</v>
+        <v>0.0005428603202847227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H5">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I5">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J5">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>10.75566445144745</v>
+        <v>5.642819858844001</v>
       </c>
       <c r="R5">
-        <v>96.80098006302701</v>
+        <v>50.785378729596</v>
       </c>
       <c r="S5">
-        <v>0.03864899330185163</v>
+        <v>0.01394751061297128</v>
       </c>
       <c r="T5">
-        <v>0.03864899330185163</v>
+        <v>0.01394751061297128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3806263333333333</v>
+        <v>0.219276</v>
       </c>
       <c r="H6">
-        <v>1.141879</v>
+        <v>0.6578280000000001</v>
       </c>
       <c r="I6">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076793</v>
       </c>
       <c r="J6">
-        <v>0.3809735272077954</v>
+        <v>0.2435782033076794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>22.60152138433711</v>
+        <v>29.512463627412</v>
       </c>
       <c r="R6">
-        <v>203.413692459034</v>
+        <v>265.612172646708</v>
       </c>
       <c r="S6">
-        <v>0.0812154425733639</v>
+        <v>0.07294675533777967</v>
       </c>
       <c r="T6">
-        <v>0.08121544257336388</v>
+        <v>0.07294675533777968</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -859,10 +859,10 @@
         <v>0.541751</v>
       </c>
       <c r="I7">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J7">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>23.111832816107</v>
+        <v>38.23623088717056</v>
       </c>
       <c r="R7">
-        <v>208.006495344963</v>
+        <v>344.126077984535</v>
       </c>
       <c r="S7">
-        <v>0.08304917615601376</v>
+        <v>0.09450952705197371</v>
       </c>
       <c r="T7">
-        <v>0.08304917615601376</v>
+        <v>0.09450952705197371</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -921,10 +921,10 @@
         <v>0.541751</v>
       </c>
       <c r="I8">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J8">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>10.91690373742422</v>
+        <v>13.78780288549845</v>
       </c>
       <c r="R8">
-        <v>98.252133636818</v>
+        <v>124.090225969486</v>
       </c>
       <c r="S8">
-        <v>0.03922838438567009</v>
+        <v>0.0340796856687964</v>
       </c>
       <c r="T8">
-        <v>0.03922838438567008</v>
+        <v>0.03407968566879639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -983,10 +983,10 @@
         <v>0.541751</v>
       </c>
       <c r="I9">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J9">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>0.4459786931615555</v>
+        <v>0.1808735034516666</v>
       </c>
       <c r="R9">
-        <v>4.013808238454</v>
+        <v>1.627861531065</v>
       </c>
       <c r="S9">
-        <v>0.001602562780066078</v>
+        <v>0.0004470699352635777</v>
       </c>
       <c r="T9">
-        <v>0.001602562780066078</v>
+        <v>0.0004470699352635777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>0.541751</v>
       </c>
       <c r="I10">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J10">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>5.102897918462556</v>
+        <v>4.647116421539667</v>
       </c>
       <c r="R10">
-        <v>45.926081266163</v>
+        <v>41.824047793857</v>
       </c>
       <c r="S10">
-        <v>0.01833655822575897</v>
+        <v>0.01148640347034149</v>
       </c>
       <c r="T10">
-        <v>0.01833655822575897</v>
+        <v>0.01148640347034149</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>0.541751</v>
       </c>
       <c r="I11">
-        <v>0.1807483886982336</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="J11">
-        <v>0.1807483886982337</v>
+        <v>0.2005976261578081</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>10.72302477888289</v>
+        <v>24.30484364091233</v>
       </c>
       <c r="R11">
-        <v>96.50722300994599</v>
+        <v>218.743592768211</v>
       </c>
       <c r="S11">
-        <v>0.03853170715072478</v>
+        <v>0.06007494003143295</v>
       </c>
       <c r="T11">
-        <v>0.03853170715072477</v>
+        <v>0.06007494003143295</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H12">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I12">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J12">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>1.830641490227</v>
+        <v>16.95942216973889</v>
       </c>
       <c r="R12">
-        <v>16.475773412043</v>
+        <v>152.63479952765</v>
       </c>
       <c r="S12">
-        <v>0.006578157120209666</v>
+        <v>0.04191906291879251</v>
       </c>
       <c r="T12">
-        <v>0.006578157120209666</v>
+        <v>0.04191906291879251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H13">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I13">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J13">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>0.8647058450775557</v>
+        <v>6.115486921771112</v>
       </c>
       <c r="R13">
-        <v>7.782352605698001</v>
+        <v>55.03938229594</v>
       </c>
       <c r="S13">
-        <v>0.003107200914024136</v>
+        <v>0.01511581458890724</v>
       </c>
       <c r="T13">
-        <v>0.003107200914024135</v>
+        <v>0.01511581458890724</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H14">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I14">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J14">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>0.03532506945488889</v>
+        <v>0.08022522181666665</v>
       </c>
       <c r="R14">
-        <v>0.317925625094</v>
+        <v>0.72202699635</v>
       </c>
       <c r="S14">
-        <v>0.0001269357536126661</v>
+        <v>0.0001982948526989061</v>
       </c>
       <c r="T14">
-        <v>0.0001269357536126661</v>
+        <v>0.0001982948526989061</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H15">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I15">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J15">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>0.4041902139158889</v>
+        <v>2.061197127336666</v>
       </c>
       <c r="R15">
-        <v>3.637711925243001</v>
+        <v>18.55077414603</v>
       </c>
       <c r="S15">
-        <v>0.001452401656896883</v>
+        <v>0.005094716742356464</v>
       </c>
       <c r="T15">
-        <v>0.001452401656896882</v>
+        <v>0.005094716742356464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01430366666666667</v>
+        <v>0.08009666666666666</v>
       </c>
       <c r="H16">
-        <v>0.042911</v>
+        <v>0.24029</v>
       </c>
       <c r="I16">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315436</v>
       </c>
       <c r="J16">
-        <v>0.01431671396532707</v>
+        <v>0.08897372333315437</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>0.8493490852562223</v>
+        <v>10.78024937374333</v>
       </c>
       <c r="R16">
-        <v>7.644141767306</v>
+        <v>97.02224436368999</v>
       </c>
       <c r="S16">
-        <v>0.003052018520583721</v>
+        <v>0.02664583423039925</v>
       </c>
       <c r="T16">
-        <v>0.00305201852058372</v>
+        <v>0.02664583423039925</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H17">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I17">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J17">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N17">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O17">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P17">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q17">
-        <v>54.210852873825</v>
+        <v>78.62377954518389</v>
       </c>
       <c r="R17">
-        <v>487.897675864425</v>
+        <v>707.6140159066549</v>
       </c>
       <c r="S17">
-        <v>0.1947992054852702</v>
+        <v>0.194336524480691</v>
       </c>
       <c r="T17">
-        <v>0.1947992054852702</v>
+        <v>0.194336524480691</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H18">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I18">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J18">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N18">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q18">
-        <v>25.60656556561667</v>
+        <v>28.35136072069312</v>
       </c>
       <c r="R18">
-        <v>230.45909009055</v>
+        <v>255.162246486238</v>
       </c>
       <c r="S18">
-        <v>0.09201365340992565</v>
+        <v>0.07007682584874383</v>
       </c>
       <c r="T18">
-        <v>0.09201365340992564</v>
+        <v>0.07007682584874382</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
         <v>23</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H19">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I19">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J19">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N19">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O19">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P19">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q19">
-        <v>1.046082563516667</v>
+        <v>0.3719236475716666</v>
       </c>
       <c r="R19">
-        <v>9.414743071650001</v>
+        <v>3.347312828145</v>
       </c>
       <c r="S19">
-        <v>0.00375895307751987</v>
+        <v>0.0009192937487789151</v>
       </c>
       <c r="T19">
-        <v>0.00375895307751987</v>
+        <v>0.0009192937487789151</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.423575</v>
+        <v>0.3713276666666667</v>
       </c>
       <c r="H20">
-        <v>1.270725</v>
+        <v>1.113983</v>
       </c>
       <c r="I20">
-        <v>0.4239613701286439</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="J20">
-        <v>0.423961370128644</v>
+        <v>0.4124816481744446</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N20">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q20">
-        <v>11.96929947049167</v>
+        <v>9.555697530075665</v>
       </c>
       <c r="R20">
-        <v>107.723695234425</v>
+        <v>86.00127777068099</v>
       </c>
       <c r="S20">
-        <v>0.04301002296521385</v>
+        <v>0.02361907628615623</v>
       </c>
       <c r="T20">
-        <v>0.04301002296521384</v>
+        <v>0.02361907628615623</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3713276666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.113983</v>
+      </c>
+      <c r="I21">
+        <v>0.4124816481744446</v>
+      </c>
+      <c r="J21">
+        <v>0.4124816481744446</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>134.590487</v>
+      </c>
+      <c r="N21">
+        <v>403.771461</v>
+      </c>
+      <c r="O21">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="P21">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="Q21">
+        <v>49.97717149324033</v>
+      </c>
+      <c r="R21">
+        <v>449.794543439163</v>
+      </c>
+      <c r="S21">
+        <v>0.1235299278100747</v>
+      </c>
+      <c r="T21">
+        <v>0.1235299278100747</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H22">
+        <v>0.106847</v>
+      </c>
+      <c r="I22">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J22">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>211.7369283333333</v>
+      </c>
+      <c r="N22">
+        <v>635.210785</v>
+      </c>
+      <c r="O22">
+        <v>0.471139807893958</v>
+      </c>
+      <c r="P22">
+        <v>0.471139807893958</v>
+      </c>
+      <c r="Q22">
+        <v>7.541151860543889</v>
+      </c>
+      <c r="R22">
+        <v>67.87036674489499</v>
+      </c>
+      <c r="S22">
+        <v>0.01863966921504941</v>
+      </c>
+      <c r="T22">
+        <v>0.01863966921504941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H23">
+        <v>0.106847</v>
+      </c>
+      <c r="I23">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J23">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>76.35132866666667</v>
+      </c>
+      <c r="N23">
+        <v>229.053986</v>
+      </c>
+      <c r="O23">
+        <v>0.1698907724959131</v>
+      </c>
+      <c r="P23">
+        <v>0.1698907724959131</v>
+      </c>
+      <c r="Q23">
+        <v>2.719303471349111</v>
+      </c>
+      <c r="R23">
+        <v>24.473731242142</v>
+      </c>
+      <c r="S23">
+        <v>0.006721376009742277</v>
+      </c>
+      <c r="T23">
+        <v>0.006721376009742277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H24">
+        <v>0.106847</v>
+      </c>
+      <c r="I24">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J24">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.001605</v>
+      </c>
+      <c r="N24">
+        <v>3.004815</v>
+      </c>
+      <c r="O24">
+        <v>0.00222869005893356</v>
+      </c>
+      <c r="P24">
+        <v>0.00222869005893356</v>
+      </c>
+      <c r="Q24">
+        <v>0.03567282981166666</v>
+      </c>
+      <c r="R24">
+        <v>0.321055468305</v>
+      </c>
+      <c r="S24">
+        <v>8.817349921478221E-05</v>
+      </c>
+      <c r="T24">
+        <v>8.817349921478222E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.106847</v>
+      </c>
+      <c r="I25">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J25">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.733869</v>
+      </c>
+      <c r="N25">
+        <v>77.201607</v>
+      </c>
+      <c r="O25">
+        <v>0.05726091425082595</v>
+      </c>
+      <c r="P25">
+        <v>0.05726091425082595</v>
+      </c>
+      <c r="Q25">
+        <v>0.9165289003476665</v>
+      </c>
+      <c r="R25">
+        <v>8.248760103128999</v>
+      </c>
+      <c r="S25">
+        <v>0.002265409296144496</v>
+      </c>
+      <c r="T25">
+        <v>0.002265409296144497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.423575</v>
-      </c>
-      <c r="H21">
-        <v>1.270725</v>
-      </c>
-      <c r="I21">
-        <v>0.4239613701286439</v>
-      </c>
-      <c r="J21">
-        <v>0.423961370128644</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>59.37981533333333</v>
-      </c>
-      <c r="N21">
-        <v>178.139446</v>
-      </c>
-      <c r="O21">
-        <v>0.2131787034353869</v>
-      </c>
-      <c r="P21">
-        <v>0.2131787034353868</v>
-      </c>
-      <c r="Q21">
-        <v>25.15180527981667</v>
-      </c>
-      <c r="R21">
-        <v>226.36624751835</v>
-      </c>
-      <c r="S21">
-        <v>0.09037953519071447</v>
-      </c>
-      <c r="T21">
-        <v>0.09037953519071444</v>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03561566666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.106847</v>
+      </c>
+      <c r="I26">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="J26">
+        <v>0.03956292570218296</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>134.590487</v>
+      </c>
+      <c r="N26">
+        <v>403.771461</v>
+      </c>
+      <c r="O26">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="P26">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="Q26">
+        <v>4.793529921496333</v>
+      </c>
+      <c r="R26">
+        <v>43.141769293467</v>
+      </c>
+      <c r="S26">
+        <v>0.01184829768203199</v>
+      </c>
+      <c r="T26">
+        <v>0.011848297682032</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.039986</v>
+      </c>
+      <c r="I27">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J27">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>211.7369283333333</v>
+      </c>
+      <c r="N27">
+        <v>635.210785</v>
+      </c>
+      <c r="O27">
+        <v>0.471139807893958</v>
+      </c>
+      <c r="P27">
+        <v>0.471139807893958</v>
+      </c>
+      <c r="Q27">
+        <v>2.822170938778889</v>
+      </c>
+      <c r="R27">
+        <v>25.39953844901</v>
+      </c>
+      <c r="S27">
+        <v>0.006975636313915842</v>
+      </c>
+      <c r="T27">
+        <v>0.006975636313915842</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.039986</v>
+      </c>
+      <c r="I28">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J28">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>76.35132866666667</v>
+      </c>
+      <c r="N28">
+        <v>229.053986</v>
+      </c>
+      <c r="O28">
+        <v>0.1698907724959131</v>
+      </c>
+      <c r="P28">
+        <v>0.1698907724959131</v>
+      </c>
+      <c r="Q28">
+        <v>1.017661409355111</v>
+      </c>
+      <c r="R28">
+        <v>9.158952684196001</v>
+      </c>
+      <c r="S28">
+        <v>0.002515381256615111</v>
+      </c>
+      <c r="T28">
+        <v>0.00251538125661511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.039986</v>
+      </c>
+      <c r="I29">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J29">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.001605</v>
+      </c>
+      <c r="N29">
+        <v>3.004815</v>
+      </c>
+      <c r="O29">
+        <v>0.00222869005893356</v>
+      </c>
+      <c r="P29">
+        <v>0.00222869005893356</v>
+      </c>
+      <c r="Q29">
+        <v>0.01335005917666666</v>
+      </c>
+      <c r="R29">
+        <v>0.12015053259</v>
+      </c>
+      <c r="S29">
+        <v>3.299770269265662E-05</v>
+      </c>
+      <c r="T29">
+        <v>3.299770269265662E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.039986</v>
+      </c>
+      <c r="I30">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J30">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.733869</v>
+      </c>
+      <c r="N30">
+        <v>77.201607</v>
+      </c>
+      <c r="O30">
+        <v>0.05726091425082595</v>
+      </c>
+      <c r="P30">
+        <v>0.05726091425082595</v>
+      </c>
+      <c r="Q30">
+        <v>0.3429981619446666</v>
+      </c>
+      <c r="R30">
+        <v>3.086983457502</v>
+      </c>
+      <c r="S30">
+        <v>0.000847797842855989</v>
+      </c>
+      <c r="T30">
+        <v>0.000847797842855989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.01332866666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.039986</v>
+      </c>
+      <c r="I31">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="J31">
+        <v>0.01480587332473058</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>134.590487</v>
+      </c>
+      <c r="N31">
+        <v>403.771461</v>
+      </c>
+      <c r="O31">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="P31">
+        <v>0.2994798153003695</v>
+      </c>
+      <c r="Q31">
+        <v>1.793911737727333</v>
+      </c>
+      <c r="R31">
+        <v>16.145205639546</v>
+      </c>
+      <c r="S31">
+        <v>0.004434060208650982</v>
+      </c>
+      <c r="T31">
+        <v>0.004434060208650982</v>
       </c>
     </row>
   </sheetData>
